--- a/OrderCheck.xlsx
+++ b/OrderCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FBF000-1F30-4DCD-A511-34351F4A3B58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F144213-D505-4628-B267-CB05CB8ADFA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/OrderCheck.xlsx
+++ b/OrderCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F144213-D505-4628-B267-CB05CB8ADFA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B46DF8A-6F85-47E6-904C-BB8476C407B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/OrderCheck.xlsx
+++ b/OrderCheck.xlsx
@@ -46,10 +46,10 @@
     <x:t>ReasonToReject</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Edit Order</x:t>
